--- a/playersprite/00playermoveused.xlsx
+++ b/playersprite/00playermoveused.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\OOP Project Demo\playersprite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\fight_club\playersprite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B30FC6-D672-480B-A445-A8731FFD0BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7BC46B-50A2-445E-B212-FC017AC33F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{961D8F03-2B40-48CE-8A9B-996600E83221}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>cammy</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>cannon drill</t>
-  </si>
-  <si>
-    <t>spinning knuckle</t>
   </si>
   <si>
     <t>L Punch</t>
@@ -270,6 +267,12 @@
   </si>
   <si>
     <t>Knockdown</t>
+  </si>
+  <si>
+    <t>M Kick</t>
+  </si>
+  <si>
+    <t>thrust kick</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EDC4CC-3BF1-4452-A5BE-5B25F2DB1701}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +704,10 @@
         <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -730,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -751,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
         <v>22</v>
@@ -780,19 +783,19 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -801,10 +804,10 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
         <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
       </c>
       <c r="Q3" t="s">
         <v>22</v>
@@ -833,31 +836,31 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" t="s">
         <v>22</v>
       </c>
       <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
@@ -886,19 +889,19 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
@@ -907,10 +910,10 @@
         <v>22</v>
       </c>
       <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
         <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -939,31 +942,31 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
         <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -998,13 +1001,13 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
@@ -1013,10 +1016,10 @@
         <v>22</v>
       </c>
       <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
         <v>61</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
@@ -1045,19 +1048,19 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -1066,10 +1069,10 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
@@ -1098,19 +1101,19 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -1119,10 +1122,10 @@
         <v>22</v>
       </c>
       <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
@@ -1151,31 +1154,31 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" t="s">
-        <v>57</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
@@ -1204,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>54</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
       </c>
       <c r="Q11" t="s">
         <v>22</v>

--- a/playersprite/00playermoveused.xlsx
+++ b/playersprite/00playermoveused.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\fight_club\playersprite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7BC46B-50A2-445E-B212-FC017AC33F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4411DE-783C-4BF3-96F6-7757E54F3975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{961D8F03-2B40-48CE-8A9B-996600E83221}"/>
   </bookViews>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>cammy</t>
   </si>
@@ -102,13 +108,7 @@
     <t>H Kick</t>
   </si>
   <si>
-    <t>Crouch H punch</t>
-  </si>
-  <si>
     <t>crouch L kick</t>
-  </si>
-  <si>
-    <t>gut hit</t>
   </si>
   <si>
     <t>crouch hit</t>
@@ -269,10 +269,46 @@
     <t>Knockdown</t>
   </si>
   <si>
-    <t>M Kick</t>
-  </si>
-  <si>
     <t>thrust kick</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A/D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S+P</t>
+  </si>
+  <si>
+    <t>S+K</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L Kick</t>
+  </si>
+  <si>
+    <t>Crouch M punch</t>
   </si>
 </sst>
 </file>
@@ -633,19 +669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EDC4CC-3BF1-4452-A5BE-5B25F2DB1701}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
@@ -698,16 +734,16 @@
         <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -730,31 +766,31 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
         <v>22</v>
@@ -783,31 +819,31 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
         <v>22</v>
@@ -836,31 +872,31 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" t="s">
         <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
@@ -889,31 +925,31 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -942,31 +978,31 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -1001,25 +1037,25 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
       <c r="N7" t="s">
         <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
@@ -1048,31 +1084,31 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
@@ -1101,31 +1137,31 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
@@ -1154,31 +1190,31 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
@@ -1207,36 +1243,89 @@
         <v>22</v>
       </c>
       <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s">
-        <v>54</v>
-      </c>
       <c r="Q11" t="s">
         <v>22</v>
       </c>
       <c r="R11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
         <v>22</v>
       </c>
     </row>
